--- a/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="45">
   <si>
     <t>氏名</t>
   </si>
@@ -74,6 +74,9 @@
     <t>連絡</t>
   </si>
   <si>
+    <t>特になし。</t>
+  </si>
+  <si>
     <t>相談</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
     <t>お疲れ様です。PLとして責任を取ってチームメンバーと一緒に努力している様子を見えました。続けて頑張ってください。</t>
   </si>
   <si>
-    <t>仲山莉功</t>
-  </si>
-  <si>
     <t>朝会</t>
   </si>
   <si>
@@ -132,6 +132,42 @@
   </si>
   <si>
     <t>お疲れ様です。要件定義書は条件付きOKを頂いたのはよかったです。もっと分かりやすく明確に修正してください。</t>
+  </si>
+  <si>
+    <t>進捗報告会</t>
+  </si>
+  <si>
+    <t>前回の顧客面談の指摘内容を元に要件定義書の編集を行った。しかし、OKは頂けなかった。10月27日(木)に要件定義書のバーチャルレビューを予約している。</t>
+  </si>
+  <si>
+    <t>構想設計の顧客面談に進むことができなかったことから遅れているように感じる。今週中に要件定義書のOKを頂けるように取り組む必要があると考える。</t>
+  </si>
+  <si>
+    <t>構想設計の顧客面談に進めず、作業が停滞している。私が不甲斐ないことが原因であるとは明らかである。これ以上、メンバーに迷惑はかけられない。更に気を引き締め取り組むべきである。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義書のレビュー・要件定義書の修正お疲れ様でした。次回は構想設計書のレビューを行えるようにしましょう。                        </t>
+  </si>
+  <si>
+    <t>お疲れ様です。作業の遅れはチームリーダーひとりのせいではないと思います。朝会で役割分担や目標などをきちんと指示した方が良いかもしれません。</t>
+  </si>
+  <si>
+    <t>要件定義書 修正、確認</t>
+  </si>
+  <si>
+    <t>構想設計 確認</t>
+  </si>
+  <si>
+    <t>構想設計の1回目の顧客面談を行った。予定より1週間遅れている。11月3日に要件定義書、構想設計のバーチャルレビューを受ける。</t>
+  </si>
+  <si>
+    <t>要件定義書、構想設計のバーチャルレビューを11月3日の木曜日に受ける。</t>
+  </si>
+  <si>
+    <t>メンバーと協力し進めることはできていると感じる。しかし、少し遅れも目立っていると感じる。講義時間外にも兀々と進めていく必要があると考える。</t>
+  </si>
+  <si>
+    <t>情報共有の甘さにより作業が増加してしまった。全員で情報共有の強化に取り組むように意識統一をしたい。作業の進捗が少し遅れている。遅れを取り戻せるように全員の協力を仰ぎたい。</t>
   </si>
 </sst>
 </file>
@@ -343,9 +379,6 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -358,16 +391,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -846,71 +882,75 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -1931,14 +1971,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2104,7 +2144,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -2113,63 +2153,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -3190,14 +3230,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3403,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -3372,63 +3412,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -4449,14 +4489,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4622,7 +4662,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -4631,63 +4671,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -5709,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -5912,35 +5952,39 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>30</v>
@@ -5950,8 +5994,8 @@
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>31</v>
@@ -5961,22 +6005,22 @@
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -6997,14 +7041,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -7018,7 +7066,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7080,8 +7128,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -7089,8 +7141,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -7098,10 +7154,18 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>105.0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -7170,7 +7234,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -7179,63 +7245,75 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -8256,14 +8334,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8277,7 +8359,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8339,8 +8421,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -8348,8 +8434,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -8357,8 +8447,12 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12">
+        <v>35.0</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
@@ -8366,8 +8460,12 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -8375,8 +8473,12 @@
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
+        <v>50.0</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
@@ -8429,7 +8531,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -8438,63 +8542,71 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -9515,14 +9627,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -9688,7 +9800,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -9697,63 +9809,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -10774,14 +10886,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10947,7 +11059,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -10956,63 +11068,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -12033,14 +12145,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12206,7 +12318,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -12215,63 +12327,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -13292,14 +13404,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13465,7 +13577,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -13474,63 +13586,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -14551,14 +14663,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14724,7 +14836,7 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -14733,63 +14845,63 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="A24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>

--- a/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
   <si>
     <t>氏名</t>
   </si>
@@ -169,6 +169,39 @@
   <si>
     <t>情報共有の甘さにより作業が増加してしまった。全員で情報共有の強化に取り組むように意識統一をしたい。作業の進捗が少し遅れている。遅れを取り戻せるように全員の協力を仰ぎたい。</t>
   </si>
+  <si>
+    <t>お疲れ様でした。次週は、構想設計書がOK貰えて基本設計を作成できるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。予定より遅れが発生したを感じました。情報共有とドキュメントの書き方を確認してください。</t>
+  </si>
+  <si>
+    <t>構想設計</t>
+  </si>
+  <si>
+    <t>顧客レビュー</t>
+  </si>
+  <si>
+    <t>構想設計レビューで条件付きOKを頂いた。</t>
+  </si>
+  <si>
+    <t>来週中に担当する画面の基本設計をよろしくお願いします。
+要件定義書、構想設計のバーチャルレビューを11月3日の木曜日に受ける。</t>
+  </si>
+  <si>
+    <t>変わらず1週間の遅れがあるが、協力、分担はできていると感じている。</t>
+  </si>
+  <si>
+    <t>要件定義、構想設計は形になった。依然1週間の遅れであるが協力し、ペースを上げていきたい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お疲れ様でした。基本設計書の作成を進めて、
+次回レビューを行えるように頑張りましょう。
+</t>
+  </si>
+  <si>
+    <t>お疲れ様です。構想設計書条件付きOKはよかったです。来週の基本設計書のレビューを一発で通過できるように頑張ってください。</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot;分&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -196,6 +229,11 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -322,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -400,10 +438,16 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1971,14 +2015,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2250,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -3230,14 +3274,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3465,7 +3509,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -4489,14 +4533,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +4768,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -8587,7 +8631,9 @@
       <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -8603,12 +8649,16 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="33"/>
+    </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -9627,14 +9677,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -9648,7 +9702,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -9710,8 +9764,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -9719,8 +9777,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -9728,17 +9790,29 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -9746,10 +9820,18 @@
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12">
+        <v>65.0</v>
+      </c>
+      <c r="D10" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E10" s="34">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
@@ -9800,7 +9882,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -9809,7 +9893,9 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -9818,7 +9904,9 @@
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -9827,17 +9915,21 @@
       <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
@@ -9846,7 +9938,9 @@
       <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -9862,7 +9956,9 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -10886,14 +10982,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -11121,7 +11217,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -12145,14 +12241,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12380,7 +12476,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -13404,14 +13500,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13639,7 +13735,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -14663,14 +14759,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14898,7 +14994,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>

--- a/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="61">
   <si>
     <t>氏名</t>
   </si>
@@ -202,6 +202,25 @@
   <si>
     <t>お疲れ様です。構想設計書条件付きOKはよかったです。来週の基本設計書のレビューを一発で通過できるように頑張ってください。</t>
   </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>バーチャルレビューにて要件定義書、構想設計書のOKを頂いた。
+基本設計にて遅れが発生する見込み。</t>
+  </si>
+  <si>
+    <t>チームメンバーの殆どが普段の生活の中に時間を作れなくなっていると聞いた。作業がさらに遅れると思われる。わずかな隙間時間でも少しずつ作業を進め、遅れを深刻化させないように心掛けたい。</t>
+  </si>
+  <si>
+    <t>作業が少し停滞しているように感じる。改善できるよう取り組む。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計と詳細設計を進めて、OK貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計書のレビューで指摘された問題点を全て修正した上でバーチャルレビューを活用してください。そろそろ実装段階に入って仕事量を増えることが想像できるので、役割分担をしっかりして頑張ってください。</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -440,9 +459,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2015,14 +2031,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2266,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -3274,14 +3290,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3525,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -4533,14 +4549,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4768,7 +4784,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -9796,11 +9812,11 @@
       <c r="C8" s="12">
         <v>80.0</v>
       </c>
-      <c r="D8" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="E8" s="34">
-        <v>90.0</v>
+      <c r="D8" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -9826,11 +9842,11 @@
       <c r="C10" s="12">
         <v>65.0</v>
       </c>
-      <c r="D10" s="34">
-        <v>100.0</v>
-      </c>
-      <c r="E10" s="34">
-        <v>95.0</v>
+      <c r="D10" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -9839,7 +9855,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -10982,14 +10998,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -11003,7 +11023,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11065,8 +11085,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -11074,8 +11098,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -11083,17 +11111,29 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <v>60.0</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -11155,7 +11195,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -11164,7 +11206,9 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -11173,7 +11217,9 @@
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -11182,17 +11228,21 @@
       <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
@@ -11201,7 +11251,9 @@
       <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -11217,7 +11269,9 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -12241,14 +12295,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12476,7 +12530,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -13500,14 +13554,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13735,7 +13789,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -14759,14 +14813,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14994,7 +15048,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>

--- a/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (仲山莉功).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="66">
   <si>
     <t>氏名</t>
   </si>
@@ -221,6 +221,21 @@
   <si>
     <t>お疲れ様でした。基本設計書のレビューで指摘された問題点を全て修正した上でバーチャルレビューを活用してください。そろそろ実装段階に入って仕事量を増えることが想像できるので、役割分担をしっかりして頑張ってください。</t>
   </si>
+  <si>
+    <t>基本設計の修正を行い顧客レビューを受けたが、多くの指摘を受けた。</t>
+  </si>
+  <si>
+    <t>進捗がかなり遅れている。このままでは設計の期間が大変短くなってしまうことが予想される。時間外でも多く活動する必要があると考える。</t>
+  </si>
+  <si>
+    <t>遅れが徐々に大きくなっている。バーチャルレビューでOKが頂けるように今週中に基本設計の修正を行う。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。予定は必ず合うとは限らないので、個別でも作業できるように分担指示を出すと良いです。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。多数の作業が同時に進まないといけないので、役割を明確に指示した方が良いと思います。</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -459,6 +474,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2031,14 +2049,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2284,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -3290,14 +3308,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3525,7 +3543,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -4549,14 +4567,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4784,7 +4802,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -12295,14 +12313,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12316,7 +12338,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -12378,8 +12400,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>30.0</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
@@ -12387,8 +12413,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
@@ -12396,17 +12426,29 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12">
+        <v>70.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <v>50.0</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -12468,7 +12510,9 @@
       <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -12477,7 +12521,9 @@
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -12486,7 +12532,9 @@
       <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -12495,17 +12543,21 @@
       <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
@@ -12514,7 +12566,9 @@
       <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
@@ -12530,7 +12584,9 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -13554,14 +13610,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13789,7 +13845,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
@@ -14813,14 +14869,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -15048,7 +15104,7 @@
       <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
